--- a/bh3/503106159747120397_2021-03-17_18-28-51.xlsx
+++ b/bh3/503106159747120397_2021-03-17_18-28-51.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:21:10</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.76469907408</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>4295556148</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-21 09:51:01</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44276.41042824074</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -700,10 +712,8 @@
           <t>4283515982</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:36:47</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44274.98387731481</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -775,10 +785,8 @@
           <t>4288127390</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:26:23</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44274.85165509259</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -846,10 +854,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-19 10:29:55</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44274.43744212963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -917,10 +923,8 @@
           <t>4284621103</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-19 00:10:20</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44274.00717592592</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -988,10 +992,8 @@
           <t>4283731706</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-18 22:03:05</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44273.91880787037</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1063,10 +1065,8 @@
           <t>4283731706</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-18 21:14:27</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44273.88503472223</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1142,10 +1142,8 @@
           <t>4283720174</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-18 21:10:28</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44273.88226851852</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1221,10 +1219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-18 20:59:48</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44273.87486111111</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1284,10 +1280,8 @@
           <t>4283515982</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-18 20:27:45</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44273.85260416667</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1363,10 +1357,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-18 18:47:59</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44273.78332175926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1430,10 +1422,8 @@
           <t>4283056771</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-18 18:47:44</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44273.78314814815</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1497,10 +1487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-18 18:21:35</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44273.76498842592</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1572,10 +1560,8 @@
           <t>4278665809</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-18 17:46:24</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44273.74055555555</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1647,10 +1633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-18 16:48:15</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44273.70017361111</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
@@ -1718,10 +1702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-18 16:05:31</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44273.67049768518</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1789,10 +1771,8 @@
           <t>4278953196</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-18 15:38:26</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44273.65168981482</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1856,10 +1836,8 @@
           <t>4282323071</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-18 15:27:07</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44273.64383101852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1923,10 +1901,8 @@
           <t>4278665809</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-18 15:11:00</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44273.63263888889</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1990,10 +1966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-18 13:56:41</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44273.5810300926</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2057,10 +2031,8 @@
           <t>4278637528</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-18 12:43:23</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44273.53012731481</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2128,10 +2100,8 @@
           <t>4280315782</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-18 12:39:33</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44273.52746527778</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2199,10 +2169,8 @@
           <t>4278637528</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-18 12:38:37</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44273.52681712963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2270,10 +2238,8 @@
           <t>4281518889</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-18 11:41:40</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44273.48726851852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2345,10 +2311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-18 11:38:14</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44273.48488425926</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2424,10 +2388,8 @@
           <t>4281262872</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-18 11:00:27</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44273.45864583334</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2491,10 +2453,8 @@
           <t>4281138829</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-18 10:22:41</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44273.43241898148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2562,10 +2522,8 @@
           <t>4280315782</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-18 10:22:32</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44273.43231481482</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2633,10 +2591,8 @@
           <t>4281262872</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-18 10:21:17</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44273.43144675926</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2704,10 +2660,8 @@
           <t>4278953196</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:40:27</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44273.40309027778</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2775,10 +2729,8 @@
           <t>4281138829</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:35:08</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44273.39939814815</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2842,10 +2794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:31:18</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44273.39673611111</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2909,10 +2859,8 @@
           <t>4281100580</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:18:37</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44273.38792824074</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2976,10 +2924,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:00:47</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44273.37554398148</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3047,10 +2993,8 @@
           <t>4279197767</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-18 08:27:22</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44273.35233796296</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3110,10 +3054,8 @@
           <t>4280610980</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-18 02:00:44</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44273.08384259259</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3186,10 +3128,8 @@
           <t>4280599914</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-18 01:58:50</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44273.08252314815</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3263,10 +3203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:42:57</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44273.02982638889</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3342,10 +3280,8 @@
           <t>4280402368</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:36:34</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44273.02539351852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3417,10 +3353,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:26:58</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44273.01872685185</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3496,10 +3430,8 @@
           <t>4280355175</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:23:00</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44273.01597222222</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3567,10 +3499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:21:49</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44273.01515046296</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3638,10 +3568,8 @@
           <t>4280315782</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:13:28</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44273.00935185186</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3709,10 +3637,8 @@
           <t>4280252531</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:00:58</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44273.00067129629</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3788,10 +3714,8 @@
           <t>4278665809</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:59:21</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44272.99954861111</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3859,10 +3783,8 @@
           <t>4280199924</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:50:07</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44272.99313657408</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3930,10 +3852,8 @@
           <t>4280082874</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:26:38</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44272.9768287037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4006,10 +3926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:04:51</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44272.96170138889</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4081,10 +3999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:59:30</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44272.95798611111</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4160,10 +4076,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:58:23</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44272.95721064815</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4234,10 +4148,8 @@
           <t>4278665809</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:47:29</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44272.9496412037</v>
       </c>
       <c r="I53" t="n">
         <v>9</v>
@@ -4309,10 +4221,8 @@
           <t>4279833657</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:41:02</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44272.94516203704</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4380,10 +4290,8 @@
           <t>4279814988</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:38:22</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44272.94331018518</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4447,10 +4355,8 @@
           <t>4279808776</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:36:18</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44272.941875</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4514,10 +4420,8 @@
           <t>4279800579</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:33:56</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44272.94023148148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4589,10 +4493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:30:56</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44272.93814814815</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4656,10 +4558,8 @@
           <t>4279742008</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:23:50</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44272.9332175926</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4727,10 +4627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:19:47</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44272.93040509259</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4798,10 +4696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:11:32</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44272.92467592593</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4865,10 +4761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:10:46</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44272.92414351852</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4936,10 +4830,8 @@
           <t>4279645883</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:04:24</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44272.91972222222</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5011,10 +4903,8 @@
           <t>4278665809</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:03:47</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44272.91929398148</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5086,10 +4976,8 @@
           <t>4279634145</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:03:24</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44272.91902777777</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5158,10 +5046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:57:56</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44272.91523148148</v>
       </c>
       <c r="I66" t="n">
         <v>34</v>
@@ -5225,10 +5111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:51:08</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44272.91050925926</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5297,10 +5181,8 @@
           <t>4278664126</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:48:03</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44272.90836805556</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5376,10 +5258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:40:06</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44272.90284722222</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5447,10 +5327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:35:36</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44272.89972222222</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5526,10 +5404,8 @@
           <t>4278665809</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:34:48</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44272.89916666667</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5605,10 +5481,8 @@
           <t>4279468296</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:30:22</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44272.89608796296</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5684,10 +5558,8 @@
           <t>4278766298</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:26:39</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44272.89350694444</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5747,10 +5619,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:19:17</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44272.88839120371</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5822,10 +5692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:08:02</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44272.88057870371</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -5893,10 +5761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:05:44</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44272.87898148148</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -5968,10 +5834,8 @@
           <t>4279338469</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:04:06</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44272.87784722223</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6039,10 +5903,8 @@
           <t>4278876875</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:53:22</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44272.87039351852</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6110,10 +5972,8 @@
           <t>4278876875</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:52:40</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44272.86990740741</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6181,10 +6041,8 @@
           <t>4278953196</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:46:12</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44272.86541666667</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6256,10 +6114,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:45:20</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44272.86481481481</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6335,10 +6191,8 @@
           <t>4279214851</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:38:16</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44272.85990740741</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6398,10 +6252,8 @@
           <t>4279197767</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:33:42</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44272.85673611111</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6469,10 +6321,8 @@
           <t>4278665809</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:32:03</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44272.85559027778</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6536,10 +6386,8 @@
           <t>4278876875</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:30:51</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44272.85475694444</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6615,10 +6463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:29:09</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44272.85357638889</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6690,10 +6536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:27:07</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44272.85216435185</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6757,10 +6601,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:18:50</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44272.84641203703</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6836,10 +6678,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:16:44</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44272.8449537037</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6903,10 +6743,8 @@
           <t>4279130582</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:16:23</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44272.84471064815</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6982,10 +6820,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:14:58</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44272.84372685185</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7061,10 +6897,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:14:41</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44272.84353009259</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7140,10 +6974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:14:19</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44272.84327546296</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7207,10 +7039,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:13:16</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44272.8425462963</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7274,10 +7104,8 @@
           <t>4278752446</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:10:28</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44272.84060185185</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7346,10 +7174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:09:20</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44272.83981481481</v>
       </c>
       <c r="I96" t="n">
         <v>8</v>
@@ -7421,10 +7247,8 @@
           <t>4278658593</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:02:27</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44272.83503472222</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7497,10 +7321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:02:00</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44272.83472222222</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7568,10 +7390,8 @@
           <t>4279046378</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:59:40</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44272.83310185185</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7635,10 +7455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:59:02</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44272.83266203704</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7698,10 +7516,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:56:25</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44272.83084490741</v>
       </c>
       <c r="I101" t="n">
         <v>5</v>
@@ -7772,10 +7588,8 @@
           <t>4278658593</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:56:13</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44272.83070601852</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7851,10 +7665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:52:38</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44272.82821759259</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7918,10 +7730,8 @@
           <t>4278665809</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:49:19</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44272.82591435185</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -7985,10 +7795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:48:46</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44272.82553240741</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8052,10 +7860,8 @@
           <t>4278992047</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:47:49</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44272.82487268518</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8134,10 +7940,8 @@
           <t>4278970349</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:42:26</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44272.82113425926</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8209,10 +8013,8 @@
           <t>4278959863</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:42:08</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44272.82092592592</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8280,10 +8082,8 @@
           <t>4278953196</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:38:48</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44272.81861111111</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8355,10 +8155,8 @@
           <t>4278947991</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:38:25</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44272.81834490741</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8434,10 +8232,8 @@
           <t>4278941205</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:36:17</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44272.81686342593</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8513,10 +8309,8 @@
           <t>4278917805</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:35:46</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44272.81650462963</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8592,10 +8386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:35:40</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44272.81643518519</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8671,10 +8463,8 @@
           <t>4278918251</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:32:01</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44272.81390046296</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8742,10 +8532,8 @@
           <t>4278917805</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:31:44</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44272.8137037037</v>
       </c>
       <c r="I115" t="n">
         <v>4</v>
@@ -8813,10 +8601,8 @@
           <t>4278664126</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:31:35</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44272.81359953704</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8888,10 +8674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:31:26</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44272.81349537037</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8959,10 +8743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:30:38</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44272.81293981482</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9034,10 +8816,8 @@
           <t>4278909197</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:29:39</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44272.81225694445</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9101,10 +8881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:27:59</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44272.81109953704</v>
       </c>
       <c r="I120" t="n">
         <v>115</v>
@@ -9172,10 +8950,8 @@
           <t>4278874608</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:22:52</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44272.8075462963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9243,10 +9019,8 @@
           <t>4278878301</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:22:29</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44272.80728009259</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9318,10 +9092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:22:13</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44272.80709490741</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9385,10 +9157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:22:06</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44272.80701388889</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9452,10 +9222,8 @@
           <t>4278876875</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:21:33</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44272.80663194445</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9523,10 +9291,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:21:00</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44272.80625</v>
       </c>
       <c r="I126" t="n">
         <v>13</v>
@@ -9586,10 +9352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:20:04</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44272.80560185185</v>
       </c>
       <c r="I127" t="n">
         <v>2</v>
@@ -9661,10 +9425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:15:28</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44272.80240740741</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9729,10 +9491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:14:24</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44272.80166666667</v>
       </c>
       <c r="I129" t="n">
         <v>108</v>
@@ -9800,10 +9560,8 @@
           <t>4278845352</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:14:04</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44272.80143518518</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9880,10 +9638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:12:22</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44272.80025462963</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -9959,10 +9715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:11:40</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44272.79976851852</v>
       </c>
       <c r="I132" t="n">
         <v>4</v>
@@ -10030,10 +9784,8 @@
           <t>4278827451</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:11:31</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44272.79966435185</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -10101,10 +9853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:10:59</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44272.79929398148</v>
       </c>
       <c r="I134" t="n">
         <v>3</v>
@@ -10177,10 +9927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:10:08</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44272.7987037037</v>
       </c>
       <c r="I135" t="n">
         <v>67</v>
@@ -10248,10 +9996,8 @@
           <t>4278818940</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:09:56</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44272.79856481482</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10323,10 +10069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:09:12</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44272.79805555556</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10398,10 +10142,8 @@
           <t>4278808709</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:08:19</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44272.79744212963</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10465,10 +10207,8 @@
           <t>4278803943</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:06:46</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44272.79636574074</v>
       </c>
       <c r="I139" t="n">
         <v>5</v>
@@ -10532,10 +10272,8 @@
           <t>4278788910</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:03:32</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44272.79412037037</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10607,10 +10345,8 @@
           <t>4278658593</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:03:16</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44272.79393518518</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10682,10 +10418,8 @@
           <t>4278658593</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:03:10</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44272.79386574074</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10757,10 +10491,8 @@
           <t>4278658593</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:01:53</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44272.79297453703</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10832,10 +10564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:01:44</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44272.79287037037</v>
       </c>
       <c r="I144" t="n">
         <v>12</v>
@@ -10899,10 +10629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:01:25</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44272.79265046296</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10966,10 +10694,8 @@
           <t>4278766298</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:58:45</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44272.79079861111</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11045,10 +10771,8 @@
           <t>4278689981</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:58:25</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44272.79056712963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11116,10 +10840,8 @@
           <t>4278766298</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:57:46</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44272.79011574074</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11183,10 +10905,8 @@
           <t>4278665809</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:56:45</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44272.78940972222</v>
       </c>
       <c r="I149" t="n">
         <v>6</v>
@@ -11254,10 +10974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:55:45</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44272.78871527778</v>
       </c>
       <c r="I150" t="n">
         <v>2</v>
@@ -11325,10 +11043,8 @@
           <t>4278752446</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:55:19</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44272.78841435185</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11396,10 +11112,8 @@
           <t>4278719523</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:55:02</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44272.78821759259</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11471,10 +11185,8 @@
           <t>4278750921</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:54:20</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44272.78773148148</v>
       </c>
       <c r="I153" t="n">
         <v>7</v>
@@ -11545,10 +11257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:53:31</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44272.78716435185</v>
       </c>
       <c r="I154" t="n">
         <v>33</v>
@@ -11616,10 +11326,8 @@
           <t>4278734440</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:52:23</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44272.78637731481</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11695,10 +11403,8 @@
           <t>4278719523</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:52:06</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44272.78618055556</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11770,10 +11476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:51:43</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44272.78591435185</v>
       </c>
       <c r="I157" t="n">
         <v>27</v>
@@ -11837,10 +11541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:51:17</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44272.78561342593</v>
       </c>
       <c r="I158" t="n">
         <v>25</v>
@@ -11904,10 +11606,8 @@
           <t>4278719619</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:49:14</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44272.78418981482</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -11979,10 +11679,8 @@
           <t>4278719523</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:49:10</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44272.78414351852</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12054,10 +11752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:48:19</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44272.78355324074</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12133,10 +11829,8 @@
           <t>4278714094</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:53</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44272.78325231482</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12205,10 +11899,8 @@
           <t>4278716530</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:42</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44272.783125</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12280,10 +11972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:26</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44272.78293981482</v>
       </c>
       <c r="I164" t="n">
         <v>20</v>
@@ -12359,10 +12049,8 @@
           <t>4278716530</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:15</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44272.7828125</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12434,10 +12122,8 @@
           <t>4278706545</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:10</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44272.78275462963</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12509,10 +12195,8 @@
           <t>4278666262</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:45:58</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44272.78192129629</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12584,10 +12268,8 @@
           <t>4278707132</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:45:25</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44272.78153935185</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12659,10 +12341,8 @@
           <t>4278699851</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:45:15</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44272.78142361111</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12738,10 +12418,8 @@
           <t>4278706545</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:45:02</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44272.78127314815</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12805,10 +12483,8 @@
           <t>4278705548</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:44:22</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44272.78081018518</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12873,10 +12549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:43:52</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44272.78046296296</v>
       </c>
       <c r="I172" t="n">
         <v>6</v>
@@ -12944,10 +12618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:43:35</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44272.78026620371</v>
       </c>
       <c r="I173" t="n">
         <v>16</v>
@@ -13019,10 +12691,8 @@
           <t>4278693553</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:43:05</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44272.77991898148</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13086,10 +12756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:43:01</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44272.77987268518</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13165,10 +12833,8 @@
           <t>4278689981</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:42:54</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44272.77979166667</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13240,10 +12906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:42:25</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44272.77945601852</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13311,10 +12975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:42:18</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44272.779375</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13390,10 +13052,8 @@
           <t>4278688775</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:42:08</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44272.77925925926</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13457,10 +13117,8 @@
           <t>4278683852</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:41:27</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44272.77878472222</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13532,10 +13190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:40:54</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44272.77840277777</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13599,10 +13255,8 @@
           <t>4278682868</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:40:51</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44272.77836805556</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13670,10 +13324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:40:03</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44272.7778125</v>
       </c>
       <c r="I183" t="n">
         <v>95</v>
@@ -13742,10 +13394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:39:30</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44272.77743055556</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13805,10 +13455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:38:24</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44272.77666666666</v>
       </c>
       <c r="I185" t="n">
         <v>4</v>
@@ -13876,10 +13524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:38:12</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44272.77652777778</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13951,10 +13597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:37:47</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44272.77623842593</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14030,10 +13674,8 @@
           <t>4278667967</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:37:46</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44272.77622685185</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14109,10 +13751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:37:25</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44272.77598379629</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14184,10 +13824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:37:12</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44272.77583333333</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14259,10 +13897,8 @@
           <t>4278648229</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:37:09</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44272.77579861111</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14340,10 +13976,8 @@
           <t>4278664126</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:59</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44272.77568287037</v>
       </c>
       <c r="I192" t="n">
         <v>12</v>
@@ -14411,10 +14045,8 @@
           <t>4278666262</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:41</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44272.77547453704</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14490,10 +14122,8 @@
           <t>4278665809</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:24</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44272.77527777778</v>
       </c>
       <c r="I194" t="n">
         <v>27</v>
@@ -14557,10 +14187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:18</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44272.77520833333</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14632,10 +14260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:50</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44272.77488425926</v>
       </c>
       <c r="I196" t="n">
         <v>55</v>
@@ -14711,10 +14337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:34</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44272.77469907407</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14786,10 +14410,8 @@
           <t>4278658593</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:32</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44272.77467592592</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14865,10 +14487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:50</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44272.77418981482</v>
       </c>
       <c r="I199" t="n">
         <v>496</v>
@@ -14936,10 +14556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:37</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44272.77403935185</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15015,10 +14633,8 @@
           <t>4278656558</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:12</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44272.77375</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15090,10 +14706,8 @@
           <t>4278656450</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:08</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44272.7737037037</v>
       </c>
       <c r="I202" t="n">
         <v>8</v>
@@ -15157,10 +14771,8 @@
           <t>4278649890</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:08</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44272.7737037037</v>
       </c>
       <c r="I203" t="n">
         <v>4</v>
@@ -15224,10 +14836,8 @@
           <t>4278648229</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:33:56</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44272.77356481482</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15299,10 +14909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:33:52</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44272.77351851852</v>
       </c>
       <c r="I205" t="n">
         <v>6</v>
@@ -15374,10 +14982,8 @@
           <t>4278648732</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:33:21</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44272.77315972222</v>
       </c>
       <c r="I206" t="n">
         <v>19</v>
@@ -15441,10 +15047,8 @@
           <t>4278648229</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:33:00</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44272.77291666667</v>
       </c>
       <c r="I207" t="n">
         <v>4</v>
@@ -15516,10 +15120,8 @@
           <t>4278648066</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:32:54</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44272.77284722222</v>
       </c>
       <c r="I208" t="n">
         <v>3</v>
@@ -15583,10 +15185,8 @@
           <t>4278639321</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:32:12</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44272.77236111111</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15658,10 +15258,8 @@
           <t>4278638935</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:57</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44272.7721875</v>
       </c>
       <c r="I210" t="n">
         <v>15</v>
@@ -15737,10 +15335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:45</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44272.77204861111</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15812,10 +15408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:28</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44272.77185185185</v>
       </c>
       <c r="I212" t="n">
         <v>2</v>
@@ -15887,10 +15481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:25</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44272.77181712963</v>
       </c>
       <c r="I213" t="n">
         <v>20</v>
@@ -15954,10 +15546,8 @@
           <t>4278645664</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:21</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44272.77177083334</v>
       </c>
       <c r="I214" t="n">
         <v>7</v>
@@ -16029,10 +15619,8 @@
           <t>4278637528</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:05</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44272.77158564814</v>
       </c>
       <c r="I215" t="n">
         <v>14</v>
@@ -16100,10 +15688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:58</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44272.77150462963</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16171,10 +15757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:58</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44272.77150462963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16251,10 +15835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:56</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44272.77148148148</v>
       </c>
       <c r="I218" t="n">
         <v>64</v>
@@ -16318,10 +15900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:44</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44272.77134259259</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16393,10 +15973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:41</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44272.77130787037</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16464,10 +16042,8 @@
           <t>4278641005</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:36</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44272.77125</v>
       </c>
       <c r="I221" t="n">
         <v>7</v>
@@ -16535,10 +16111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:32</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44272.77120370371</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16598,10 +16172,8 @@
           <t>4278634282</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:29</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44272.77116898148</v>
       </c>
       <c r="I223" t="n">
         <v>6</v>
@@ -16673,10 +16245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:28</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44272.77115740741</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16748,10 +16318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:26</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44272.77113425926</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16819,10 +16387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:18</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44272.77104166667</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16894,10 +16460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:10</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44272.77094907407</v>
       </c>
       <c r="I227" t="n">
         <v>164</v>
@@ -16974,10 +16538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:09</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44272.7709375</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17041,10 +16603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:06</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44272.77090277777</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17120,10 +16680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:02</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44272.77085648148</v>
       </c>
       <c r="I230" t="n">
         <v>8</v>
@@ -17191,10 +16749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:53</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44272.77075231481</v>
       </c>
       <c r="I231" t="n">
         <v>5</v>
@@ -17258,10 +16814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:46</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44272.7706712963</v>
       </c>
       <c r="I232" t="n">
         <v>47</v>
@@ -17325,10 +16879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:43</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44272.77063657407</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17392,10 +16944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:31</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44272.77049768518</v>
       </c>
       <c r="I234" t="n">
         <v>14</v>
@@ -17459,10 +17009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:22</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44272.77039351852</v>
       </c>
       <c r="I235" t="n">
         <v>599</v>
@@ -17534,10 +17082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:14</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44272.77030092593</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17609,10 +17155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:12</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44272.77027777778</v>
       </c>
       <c r="I237" t="n">
         <v>6</v>
